--- a/xlsx/弗里德里希·哈耶克_intext.xlsx
+++ b/xlsx/弗里德里希·哈耶克_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="755">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="749">
   <si>
     <t>弗里德里希·哈耶克</t>
   </si>
@@ -26,22 +26,22 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%8C%88%E5%B8%9D%E5%9C%8B</t>
   </si>
   <si>
-    <t>奧匈帝國</t>
-  </si>
-  <si>
-    <t>政策_政策_貨幣政策_弗里德里希·哈耶克</t>
+    <t>奥匈帝国</t>
+  </si>
+  <si>
+    <t>政策_政策_货币政策_弗里德里希·哈耶克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E4%B9%9F%E7%B4%8D</t>
   </si>
   <si>
-    <t>維也納</t>
+    <t>维也纳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B</t>
   </si>
   <si>
-    <t>德國</t>
+    <t>德国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E8%8E%B1%E5%A0%A1</t>
@@ -59,13 +59,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8A%9D%E5%8A%A0%E5%93%A5%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>芝加哥大學</t>
+    <t>芝加哥大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%80%AB%E6%95%A6%E6%94%BF%E6%B2%BB%E7%B6%93%E6%BF%9F%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>倫敦政治經濟學院</t>
+    <t>伦敦政治经济学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
@@ -83,25 +83,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%B2%E5%AD%B8</t>
   </si>
   <si>
-    <t>哲學</t>
+    <t>哲学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>心理學</t>
+    <t>心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%AD%B8</t>
   </si>
   <si>
-    <t>法學</t>
+    <t>法学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%9C%B0%E5%88%A9%E7%B6%93%E6%BF%9F%E5%AD%B8%E6%B4%BE</t>
   </si>
   <si>
-    <t>奧地利經濟學派</t>
+    <t>奥地利经济学派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%8D%E6%A0%A1</t>
@@ -113,13 +113,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E4%B9%9F%E7%B4%8D%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>維也納大學</t>
+    <t>维也纳大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%AD%B8%E5%8D%9A%E5%A3%AB</t>
   </si>
   <si>
-    <t>法學博士</t>
+    <t>法学博士</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%9A%E5%A3%AB</t>
@@ -149,25 +149,25 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%AD%B7%E8%A5%BF%E6%96%AF%C2%B7%E6%89%98%E5%85%8B%E7%B6%AD%E7%88%BE</t>
   </si>
   <si>
-    <t>亞歷西斯·托克維爾</t>
+    <t>亚历西斯·托克维尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E9%87%8C%E5%BE%B7%E9%87%8C%E5%B8%8C%C2%B7%E9%A6%AE%C2%B7%E7%B6%AD%E5%A1%9E%E7%88%BE</t>
   </si>
   <si>
-    <t>弗里德里希·馮·維塞爾</t>
+    <t>弗里德里希·冯·维塞尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%A0%B9%C2%B7%E5%8D%9A%E5%A7%86-%E5%B7%B4%E7%B6%AD%E5%85%8B</t>
   </si>
   <si>
-    <t>歐根·博姆-巴維克</t>
+    <t>欧根·博姆-巴维克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B7%AF%E5%BE%B7%E7%B6%AD%E5%B8%8C%C2%B7%E9%A6%AE%C2%B7%E7%B1%B3%E5%A1%9E%E6%96%AF</t>
   </si>
   <si>
-    <t>路德維希·馮·米塞斯</t>
+    <t>路德维希·冯·米塞斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B7%AF%E5%BE%B7%E7%BB%B4%E5%B8%8C%C2%B7%E7%BB%B4%E7%89%B9%E6%A0%B9%E6%96%AF%E5%9D%A6</t>
@@ -185,19 +185,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E4%BC%AF%C2%B7%E8%AB%BE%E9%BD%8A%E5%85%8B</t>
   </si>
   <si>
-    <t>羅伯·諾齊克</t>
+    <t>罗伯·诺齐克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%C2%B7%E6%96%AF%E8%92%82%E6%A0%BC%E5%8B%92</t>
   </si>
   <si>
-    <t>喬治·斯蒂格勒</t>
+    <t>乔治·斯蒂格勒</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9A%86%E7%B4%8D%C2%B7%E9%9B%B7%E6%A0%B9</t>
   </si>
   <si>
-    <t>隆納·雷根</t>
+    <t>隆纳·雷根</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%9B%E6%A0%BC%E5%88%A9%E7%89%B9%C2%B7%E6%92%92%E5%88%87%E5%B0%94</t>
@@ -209,13 +209,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B1%B3%E7%88%BE%E9%A0%93%C2%B7%E5%82%85%E5%88%A9%E6%9B%BC</t>
   </si>
   <si>
-    <t>米爾頓·傅利曼</t>
+    <t>米尔顿·傅利曼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%A1%9B%C2%B7%E4%BD%9B%E5%88%A9%E6%B0%91</t>
   </si>
   <si>
-    <t>大衛·佛利民</t>
+    <t>大卫·佛利民</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E5%86%9C%C2%B7%E5%8F%B2%E5%AF%86%E6%96%AF</t>
@@ -227,19 +227,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B7%AF%E5%BE%B7%E7%B6%AD%E5%B8%8C%C2%B7%E8%89%BE%E5%93%88%E5%BE%B7</t>
   </si>
   <si>
-    <t>路德維希·艾哈德</t>
+    <t>路德维希·艾哈德</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E7%B4%8D%E5%BE%B7%C2%B7%E7%A7%91%E6%96%AF</t>
   </si>
   <si>
-    <t>羅納德·科斯</t>
+    <t>罗纳德·科斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A9%86%E7%91%9E%C2%B7%E7%BE%85%E6%96%AF%E5%B7%B4%E5%BE%B7</t>
   </si>
   <si>
-    <t>穆瑞·羅斯巴德</t>
+    <t>穆瑞·罗斯巴德</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%91%9F%C2%B7%E6%8B%89%E5%BC%97</t>
@@ -257,13 +257,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%89%E7%B1%B3%C2%B7%E5%A8%81%E7%88%BE%E6%96%AF</t>
   </si>
   <si>
-    <t>吉米·威爾斯</t>
+    <t>吉米·威尔斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E5%83%B9%E6%A0%BC%E6%A9%9F%E5%88%B6</t>
   </si>
   <si>
-    <t>自由價格機制</t>
+    <t>自由价格机制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B5%AB%E5%B8%83%E7%90%86%E8%AE%BA</t>
@@ -275,19 +275,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AB%BE%E8%B2%9D%E7%88%BE%E7%B6%93%E6%BF%9F%E5%AD%B8%E7%8D%8E</t>
   </si>
   <si>
-    <t>諾貝爾經濟學獎</t>
+    <t>诺贝尔经济学奖</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%B8%BD%E7%B5%B1%E8%87%AA%E7%94%B1%E5%8B%9B%E7%AB%A0</t>
   </si>
   <si>
-    <t>美國總統自由勛章</t>
+    <t>美国总统自由勋章</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%8D%E8%AD%BD%E5%8B%B3%E4%BD%8D</t>
   </si>
   <si>
-    <t>名譽勳位</t>
+    <t>名誉勳位</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E5%9C%B0%E5%88%A9</t>
@@ -299,7 +299,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B</t>
   </si>
   <si>
-    <t>英國</t>
+    <t>英国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E6%B5%8E%E5%AD%A6%E5%AE%B6</t>
@@ -311,13 +311,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E5%B8%82%E5%A0%B4</t>
   </si>
   <si>
-    <t>自由市場</t>
+    <t>自由市场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E6%9C%AC%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>資本主義</t>
+    <t>资本主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E4%B8%BB%E4%B9%89</t>
@@ -329,13 +329,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%87%B1%E6%81%A9%E6%96%AF%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>凱恩斯主義</t>
+    <t>凯恩斯主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%86%E9%AB%94%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>集體主義</t>
+    <t>集体主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E6%80%9D%E6%83%B3</t>
@@ -347,13 +347,10 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%AD%A6</t>
   </si>
   <si>
-    <t>法学</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B3%BB%E7%B5%B1%E6%80%9D%E7%B6%AD</t>
   </si>
   <si>
-    <t>系統思維</t>
+    <t>系统思维</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AE%A4%E7%9F%A5%E7%A7%91%E5%AD%A6</t>
@@ -371,9 +368,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AF%BA%E8%B4%9D%E5%B0%94%E7%BB%8F%E6%B5%8E%E5%AD%A6%E5%A5%96</t>
   </si>
   <si>
-    <t>诺贝尔经济学奖</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B4%A7%E5%B8%81%E6%94%BF%E7%AD%96</t>
   </si>
   <si>
@@ -383,25 +377,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%C2%B7%E8%B5%AB%E4%BC%AF%E7%89%B9%C2%B7%E6%B2%83%E5%85%8B%C2%B7%E5%B8%83%E5%B8%8C</t>
   </si>
   <si>
-    <t>喬治·赫伯特·沃克·布希</t>
+    <t>乔治·赫伯特·沃克·布希</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%B8%8C%E7%B1%B3%E4%BA%9E</t>
   </si>
   <si>
-    <t>波希米亞</t>
+    <t>波希米亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%82%8F%E8%BC%AF%E5%93%B2%E5%AD%B8%E8%AB%96</t>
   </si>
   <si>
-    <t>邏輯哲學論</t>
+    <t>逻辑哲学论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%80%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>第一次世界大戰</t>
+    <t>第一次世界大战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AE%B8%E9%9C%8D%C2%B7%E5%BE%B7%E5%BC%97%E9%87%8C%E6%96%AF</t>
@@ -413,13 +407,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B7%AF%E5%BE%B7%E7%B6%AD%E5%B8%8C%C2%B7%E5%AE%89%E5%BE%B7%E5%88%97%E6%96%AF%C2%B7%E8%B2%BB%E7%88%BE%E5%B7%B4%E5%93%88</t>
   </si>
   <si>
-    <t>路德維希·安德列斯·費爾巴哈</t>
+    <t>路德维希·安德列斯·费尔巴哈</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E9%87%8C%E6%96%AF%E5%A4%9A%E5%BE%B7</t>
   </si>
   <si>
-    <t>亞里斯多德</t>
+    <t>亚里斯多德</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1918%E5%B9%B4%E6%B5%81%E6%84%9F%E5%A4%A7%E6%B5%81%E8%A1%8C</t>
@@ -431,7 +425,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8D%E5%8F%AF%E7%9F%A5%E8%AB%96</t>
   </si>
   <si>
-    <t>不可知論</t>
+    <t>不可知论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%BE%8B</t>
@@ -443,7 +437,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%AD%B8</t>
   </si>
   <si>
-    <t>政治學</t>
+    <t>政治学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%9A%E5%A3%AB%E5%AD%A6%E4%BD%8D</t>
@@ -467,7 +461,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%88%BE%E5%BC%97%E9%9B%B7%E5%BE%B7%C2%B7%E8%88%92%E8%8C%A8</t>
   </si>
   <si>
-    <t>阿爾弗雷德·舒茨</t>
+    <t>阿尔弗雷德·舒茨</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E9%87%8C%E8%8C%A8%C2%B7%E9%A9%AC%E8%B5%AB%E5%8D%A2%E6%99%AE</t>
@@ -479,7 +473,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E7%88%BE%C2%B7%E9%96%80%E6%A0%BC%E7%88%BE</t>
   </si>
   <si>
-    <t>卡爾·門格爾</t>
+    <t>卡尔·门格尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%BD%E7%BA%A6%E5%A4%A7%E5%AD%A6</t>
@@ -491,7 +485,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E7%A4%BE%E6%9C%83%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>民主社會主義</t>
+    <t>民主社会主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%C2%B7%E5%B8%8C%E5%85%8B%E6%96%AF</t>
@@ -503,13 +497,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%C2%B7%E6%A2%85%E7%B4%8D%E5%BE%B7%C2%B7%E5%87%B1%E5%9B%A0%E6%96%AF</t>
   </si>
   <si>
-    <t>約翰·梅納德·凱因斯</t>
+    <t>约翰·梅纳德·凯因斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E6%99%A4%E5%A3%AB%E5%A0%B1</t>
   </si>
   <si>
-    <t>泰晤士報</t>
+    <t>泰晤士报</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%BB%89%C2%B7%E9%98%BF%E7%91%9F%C2%B7%E5%88%98%E6%98%93%E6%96%AF</t>
@@ -521,19 +515,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%C2%B7%E5%8A%A0%E7%88%BE%E5%B8%83%E9%9B%B7%E6%96%AF</t>
   </si>
   <si>
-    <t>約翰·加爾布雷斯</t>
+    <t>约翰·加尔布雷斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E5%8F%A4%E6%8B%89%E6%96%AF%C2%B7%E5%8D%A1%E7%88%BE%E5%A4%9A</t>
   </si>
   <si>
-    <t>尼古拉斯·卡爾多</t>
+    <t>尼古拉斯·卡尔多</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%A5%A7%E5%90%88%E4%BD%B5</t>
   </si>
   <si>
-    <t>德奧合併</t>
+    <t>德奥合并</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E7%B1%8D%E4%BA%BA%E5%A3%AB</t>
@@ -545,7 +539,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%80%9A%E5%BE%80%E5%A5%B4%E5%BD%B9%E4%B9%8B%E8%B7%AF</t>
@@ -557,7 +551,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%A5%BF%E6%96%AF%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>法西斯主義</t>
+    <t>法西斯主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E5%8E%86%E8%A5%BF%E6%96%AF%C2%B7%E5%BE%B7%C2%B7%E6%89%98%E5%85%8B%E7%BB%B4%E5%B0%94</t>
@@ -569,19 +563,16 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8A%9D%E5%8A%A0%E5%93%A5%E5%A4%A7%E5%AD%A6</t>
   </si>
   <si>
-    <t>芝加哥大学</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AE%80%E8%80%85%E6%96%87%E6%91%98</t>
   </si>
   <si>
-    <t>讀者文摘</t>
+    <t>读者文摘</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>自由主義</t>
+    <t>自由主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1</t>
@@ -599,19 +590,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E8%87%AA%E7%94%B1%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>經濟自由主義</t>
+    <t>经济自由主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E8%B2%BF%E6%98%93</t>
   </si>
   <si>
-    <t>自由貿易</t>
+    <t>自由贸易</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%80%8B%E4%BA%BA%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>個人主義</t>
+    <t>个人主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E6%94%BE%E4%BB%BB</t>
@@ -641,7 +632,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%82%E5%A0%B4%E7%B6%93%E6%BF%9F</t>
   </si>
   <si>
-    <t>市場經濟</t>
+    <t>市场经济</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%80%E6%94%BE%E7%A4%BE%E4%BC%9A</t>
@@ -653,55 +644,55 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%B0%91%E4%B8%BB%E6%AC%8A</t>
   </si>
   <si>
-    <t>人民主權</t>
+    <t>人民主权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%88%A9</t>
   </si>
   <si>
-    <t>權利</t>
+    <t>权利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%95%99%E5%88%86%E9%9B%A2</t>
   </si>
   <si>
-    <t>政教分離</t>
+    <t>政教分离</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E6%94%BF%E5%BA%9C%E8%87%AA%E7%94%B1%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>無政府自由主義</t>
+    <t>无政府自由主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%85%B8%E8%87%AA%E7%94%B1%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>古典自由主義</t>
+    <t>古典自由主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E5%AE%88%E8%87%AA%E7%94%B1%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>保守自由主義</t>
+    <t>保守自由主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E6%84%8F%E5%BF%97%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>自由意志主義</t>
+    <t>自由意志主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E6%97%8F%E8%87%AA%E7%94%B1%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>民族自由主義</t>
+    <t>民族自由主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%87%AA%E7%94%B1%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>新自由主義</t>
+    <t>新自由主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BF%80%E8%BF%9B%E4%B8%BB%E4%B9%89</t>
@@ -713,15 +704,12 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%C2%B7%E6%B4%9B%E5%85%8B</t>
   </si>
   <si>
-    <t>約翰·洛克</t>
+    <t>约翰·洛克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%95%B6%C2%B7%E6%96%AF%E5%AF%86</t>
   </si>
   <si>
-    <t>亞當·斯密</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E5%BD%93%C2%B7%E7%A6%8F%E6%A0%BC%E6%A3%AE</t>
   </si>
   <si>
@@ -731,25 +719,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B9%AF%E7%91%AA%E6%96%AF%C2%B7%E5%82%91%E4%BD%9B%E9%81%9C</t>
   </si>
   <si>
-    <t>湯瑪斯·傑佛遜</t>
+    <t>汤玛斯·杰佛逊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B9%AF%E7%91%AA%E6%96%AF%C2%B7%E6%BD%98%E6%81%A9</t>
   </si>
   <si>
-    <t>湯瑪斯·潘恩</t>
+    <t>汤玛斯·潘恩</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%9F%E5%BE%B7%E6%96%AF%E9%B3%A9</t>
   </si>
   <si>
-    <t>孟德斯鳩</t>
+    <t>孟德斯鸠</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%9B%BC%E5%8A%AA%E7%88%BE%C2%B7%E5%BA%B7%E5%BE%B7</t>
   </si>
   <si>
-    <t>伊曼努爾·康德</t>
+    <t>伊曼努尔·康德</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B0%E9%87%8C%E7%B1%B3%C2%B7%E8%BE%B9%E6%B2%81</t>
@@ -767,7 +755,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%BB%89%C2%B7%E9%A6%AE%C2%B7%E6%B4%AA%E5%A0%A1</t>
   </si>
   <si>
-    <t>威廉·馮·洪堡</t>
+    <t>威廉·冯·洪堡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E9%9B%B7%E5%BE%B7%E9%87%8C%E5%85%8B%C2%B7%E5%B7%B4%E6%96%AF%E5%A4%8F</t>
@@ -803,7 +791,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%AF%E7%89%B9%E8%98%AD%C2%B7%E7%BE%85%E7%B4%A0</t>
   </si>
   <si>
-    <t>伯特蘭·羅素</t>
+    <t>伯特兰·罗素</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BB%A5%E8%B5%9B%E4%BA%9A%C2%B7%E4%BC%AF%E6%9E%97</t>
@@ -815,13 +803,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%C2%B7%E7%BE%85%E7%88%BE%E6%96%AF</t>
   </si>
   <si>
-    <t>約翰·羅爾斯</t>
+    <t>约翰·罗尔斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E4%BC%AF%E7%89%B9%C2%B7%E8%AB%BE%E9%BD%8A%E5%85%8B</t>
   </si>
   <si>
-    <t>羅伯特·諾齊克</t>
+    <t>罗伯特·诺齐克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%A5%E5%A4%8D</t>
@@ -851,19 +839,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E8%87%AA%E7%94%B1%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>國際自由聯盟</t>
+    <t>国际自由联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2%E8%87%AA%E7%94%B1%E6%B0%91%E4%B8%BB%E6%94%B9%E9%9D%A9%E9%BB%A8</t>
   </si>
   <si>
-    <t>歐洲自由民主改革黨</t>
+    <t>欧洲自由民主改革党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2%E8%87%AA%E7%94%B1%E6%B0%91%E4%B8%BB%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>歐洲自由民主聯盟</t>
+    <t>欧洲自由民主联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:Liberalism</t>
@@ -881,19 +869,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A8%88%E5%8A%83%E7%B6%93%E6%BF%9F</t>
   </si>
   <si>
-    <t>計劃經濟</t>
+    <t>计划经济</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A5%B5%E6%AC%8A%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>極權主義</t>
+    <t>极权主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8D%A8%E8%A3%81</t>
   </si>
   <si>
-    <t>獨裁</t>
+    <t>独裁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%81%A9%E9%87%8C%E7%A7%91%C2%B7%E8%B4%B9%E7%B1%B3</t>
@@ -905,7 +893,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8A%9D%E5%8A%A0%E5%93%A5%E7%B6%93%E6%BF%9F%E5%AD%B8%E6%B4%BE</t>
   </si>
   <si>
-    <t>芝加哥經濟學派</t>
+    <t>芝加哥经济学派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%BE%B7</t>
@@ -917,7 +905,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E%E5%A4%A7%E5%AD%B8%E6%B4%9B%E6%9D%89%E7%A3%AF%E5%88%86%E6%A0%A1</t>
   </si>
   <si>
-    <t>加州大學洛杉磯分校</t>
+    <t>加州大学洛杉矶分校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%85%B8%E7%9A%87%E5%AE%B6%E7%A7%91%E5%AD%A6%E9%99%A2</t>
@@ -929,19 +917,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8C%81%E4%B8%8D%E5%90%8C%E6%94%BF%E8%A6%8B%E8%80%85</t>
   </si>
   <si>
-    <t>持不同政見者</t>
+    <t>持不同政见者</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%AD%B7%E5%B1%B1%E5%A4%A7%C2%B7%E7%B4%A2%E5%BF%8D%E5%B0%BC%E8%BE%9B</t>
   </si>
   <si>
-    <t>亞歷山大·索忍尼辛</t>
+    <t>亚历山大·索忍尼辛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E6%94%BF%E5%BA%9C%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>無政府主義</t>
+    <t>无政府主义</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Counter-economics</t>
@@ -959,13 +947,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E8%87%AA%E7%94%B1</t>
   </si>
   <si>
-    <t>經濟自由</t>
+    <t>经济自由</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B9%B3%E7%AD%89%E5%8E%9F%E5%89%87</t>
   </si>
   <si>
-    <t>平等原則</t>
+    <t>平等原则</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E7%A4%BE%E4%BC%9A</t>
@@ -983,7 +971,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B5%90%E7%A4%BE%E8%87%AA%E7%94%B1</t>
   </si>
   <si>
-    <t>結社自由</t>
+    <t>结社自由</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%91%E7%BA%A6%E8%87%AA%E7%94%B1%E5%8E%9F%E5%88%99</t>
@@ -995,25 +983,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B9%E6%B3%95%E8%AB%96%E7%9A%84%E5%80%8B%E4%BA%BA%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>方法論的個人主義</t>
+    <t>方法论的个人主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%84%B6%E6%AC%8A%E5%88%A9</t>
   </si>
   <si>
-    <t>自然權利</t>
+    <t>自然权利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%92%E4%B8%8D%E4%BE%B5%E7%8A%AF%E5%8E%9F%E5%89%87</t>
   </si>
   <si>
-    <t>互不侵犯原則</t>
+    <t>互不侵犯原则</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%A1%E7%94%A2%E6%AC%8A</t>
   </si>
   <si>
-    <t>財產權</t>
+    <t>财产权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%82%E4%B8%8E%E5%9E%8B%E7%BB%8F%E6%B5%8E</t>
@@ -1037,13 +1025,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E6%88%91%E6%89%80%E6%9C%89%E6%AC%8A</t>
   </si>
   <si>
-    <t>自我所有權</t>
+    <t>自我所有权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E8%A7%80%E5%83%B9%E5%80%BC%E7%90%86%E8%AB%96</t>
   </si>
   <si>
-    <t>主觀價值理論</t>
+    <t>主观价值理论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E4%BA%BA%E8%87%AA%E6%B2%BB</t>
@@ -1061,61 +1049,61 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E6%94%BF%E5%BA%9C%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>小政府主義</t>
+    <t>小政府主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E6%94%BF%E5%BA%9C%E8%B3%87%E6%9C%AC%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>無政府資本主義</t>
+    <t>无政府资本主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E6%94%BF%E5%BA%9C%E5%85%B1%E7%94%A2%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>無政府共產主義</t>
+    <t>无政府共产主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E6%84%8F%E5%BF%97%E4%BF%9D%E5%AE%88%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>自由意志保守主義</t>
+    <t>自由意志保守主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E6%84%8F%E5%BF%97%E7%A4%BE%E6%9C%83%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>自由意志社會主義</t>
+    <t>自由意志社会主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A6%E6%B4%BE%E8%87%AA%E7%94%B1%E6%84%8F%E5%BF%97%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>左派自由意志主義</t>
+    <t>左派自由意志主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B3%E6%B4%BE%E8%87%AA%E7%94%B1%E6%84%8F%E5%BF%97%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>右派自由意志主義</t>
+    <t>右派自由意志主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E5%B8%82%E5%A0%B4%E8%87%AA%E7%94%B1%E6%84%8F%E5%BF%97%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>自由市場自由意志主義</t>
+    <t>自由市场自由意志主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%E8%87%AA%E7%94%B1%E6%84%8F%E5%BF%97%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>喬治自由意志主義</t>
+    <t>乔治自由意志主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AB%BE%E5%A7%86%C2%B7%E5%96%AC%E5%A7%86%E6%96%AF%E5%9F%BA</t>
   </si>
   <si>
-    <t>諾姆·喬姆斯基</t>
+    <t>诺姆·乔姆斯基</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Joseph_D%C3%A9jacque</t>
@@ -1139,31 +1127,31 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%A8%E5%88%A9%C2%B7%E8%B5%AB%E8%8C%B2%E5%88%A9%E7%89%B9</t>
   </si>
   <si>
-    <t>亨利·赫茲利特</t>
+    <t>亨利·赫兹利特</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E6%96%AF-%E8%B5%AB%E7%88%BE%E6%9B%BC%C2%B7%E9%9C%8D%E6%99%AE</t>
   </si>
   <si>
-    <t>漢斯-赫爾曼·霍普</t>
+    <t>汉斯-赫尔曼·霍普</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A6%AE%C2%B7%E4%BF%9D%E7%BE%85</t>
   </si>
   <si>
-    <t>榮·保羅</t>
+    <t>荣·保罗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E8%8C%B5%C2%B7%E8%98%AD%E5%BE%B7</t>
   </si>
   <si>
-    <t>艾茵·蘭德</t>
+    <t>艾茵·兰德</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%A7%E5%9F%83%E6%9E%97%C2%B7%E7%BE%85%E5%85%8B%E7%B6%AD%E7%88%BE</t>
   </si>
   <si>
-    <t>盧埃林·羅克維爾</t>
+    <t>卢埃林·罗克维尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%91%9F%E5%A4%AB%C2%B7%E7%86%8A%E5%BD%BC%E7%89%B9</t>
@@ -1175,31 +1163,31 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%A8%E5%88%A9%C2%B7%E6%88%B4%E7%B6%AD%C2%B7%E6%A2%AD%E7%BE%85</t>
   </si>
   <si>
-    <t>亨利·戴維·梭羅</t>
+    <t>亨利·戴维·梭罗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%97%E5%A4%AB%C2%B7%E6%89%98%E7%88%BE%E6%96%AF%E6%B3%B0</t>
   </si>
   <si>
-    <t>列夫·托爾斯泰</t>
+    <t>列夫·托尔斯泰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E6%88%B0</t>
   </si>
   <si>
-    <t>反戰</t>
+    <t>反战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E6%94%BF%E5%BA%9C%E5%B7%A5%E5%9C%98%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>無政府工團主義</t>
+    <t>无政府工团主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E6%B0%91%E7%A4%BE%E6%9C%83%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>公民社會主義</t>
+    <t>公民社会主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%AA%E6%94%BF%E4%B8%BB%E4%B9%89</t>
@@ -1211,13 +1199,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E6%84%8F%E5%BF%97%E4%B8%BB%E7%BE%A9%E5%85%B1%E5%92%8C%E9%BB%A8%E4%BA%BA</t>
   </si>
   <si>
-    <t>自由意志主義共和黨人</t>
+    <t>自由意志主义共和党人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%92%8C%E7%AB%8B%E6%86%B2%E5%88%B6</t>
   </si>
   <si>
-    <t>共和立憲制</t>
+    <t>共和立宪制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%92%92%E5%88%87%E5%B0%94%E5%A4%AB%E4%BA%BA</t>
@@ -1229,19 +1217,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E9%BB%A8_(%E8%8B%B1%E5%9C%8B)</t>
   </si>
   <si>
-    <t>自由黨 (英國)</t>
+    <t>自由党 (英国)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E9%BB%A8_(%E8%8B%B1%E5%9C%8B)</t>
   </si>
   <si>
-    <t>工黨 (英國)</t>
+    <t>工党 (英国)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E6%AD%90</t>
   </si>
   <si>
-    <t>中歐</t>
+    <t>中欧</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%BF%E5%9D%A1%E9%87%8C</t>
@@ -1265,7 +1253,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%A5%E6%9C%9B%C2%B7%E4%BF%9D%E7%A5%BF%E4%BA%8C%E4%B8%96</t>
   </si>
   <si>
-    <t>若望·保祿二世</t>
+    <t>若望·保禄二世</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E4%B8%BB%E6%95%99</t>
@@ -1277,49 +1265,49 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E9%BA%97%E8%8E%8E%E7%99%BD%E4%BA%8C%E4%B8%96</t>
   </si>
   <si>
-    <t>伊麗莎白二世</t>
+    <t>伊丽莎白二世</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E6%9C%AC</t>
   </si>
   <si>
-    <t>資本</t>
+    <t>资本</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%A8%E5%B9%A3</t>
   </si>
   <si>
-    <t>貨幣</t>
+    <t>货币</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%AF%E6%B0%A3%E5%BE%AA%E7%92%B0</t>
   </si>
   <si>
-    <t>景氣循環</t>
+    <t>景气循环</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%8A%80%E8%A1%8C</t>
   </si>
   <si>
-    <t>銀行</t>
+    <t>银行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%82%8A%E9%9A%9B%E6%95%88%E7%9B%8A</t>
   </si>
   <si>
-    <t>邊際效益</t>
+    <t>边际效益</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E9%8A%80%E8%A1%8C</t>
   </si>
   <si>
-    <t>中央銀行</t>
+    <t>中央银行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%80%9A%E8%B2%A8%E8%86%A8%E8%84%B9</t>
   </si>
   <si>
-    <t>通貨膨脹</t>
+    <t>通货膨胀</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E8%9E%8D%E4%BF%A1%E7%94%A8</t>
@@ -1337,7 +1325,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%8D%E6%A9%8B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>劍橋大學</t>
+    <t>剑桥大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B0%94%E5%BC%97%E9%9B%B7%E5%BE%B7%C2%B7%E9%A9%AC%E6%AD%87%E5%B0%94</t>
@@ -1349,13 +1337,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B8%BD%E9%AB%94%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>總體經濟學</t>
+    <t>总体经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B8%BD%E9%9C%80%E6%B1%82</t>
   </si>
   <si>
-    <t>總需求</t>
+    <t>总需求</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E6%B5%8E%E8%AE%A1%E7%AE%97%E9%97%AE%E9%A2%98</t>
@@ -1367,31 +1355,31 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%85%8B%E6%96%AF%C2%B7%E9%9F%8B%E4%BC%AF</t>
   </si>
   <si>
-    <t>馬克斯·韋伯</t>
+    <t>马克斯·韦伯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%83%B9%E6%A0%BC</t>
   </si>
   <si>
-    <t>價格</t>
+    <t>价格</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E6%88%91%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>自我組織</t>
+    <t>自我组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E7%9F%AD%E7%BC%BA</t>
   </si>
   <si>
-    <t>經濟短缺</t>
+    <t>经济短缺</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E5%89%A9%E9%A4%98</t>
   </si>
   <si>
-    <t>經濟剩餘</t>
+    <t>经济剩馀</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E5%88%A9%E5%BC%97%C2%B7%E5%A8%81%E5%BB%89%E5%A7%86%E6%A3%AE</t>
@@ -1415,7 +1403,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E7%B6%93%E7%94%9F%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>神經生理學</t>
+    <t>神经生理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%80%E6%9C%89%E6%9D%83</t>
@@ -1433,7 +1421,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E6%AD%A3%E7%BE%A9</t>
   </si>
   <si>
-    <t>社會正義</t>
+    <t>社会正义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%AD%A6%E5%93%B2%E5%AD%A6</t>
@@ -1451,67 +1439,64 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B5%AB%E6%AF%94%E5%AD%B8%E7%BF%92%E6%B3%95</t>
   </si>
   <si>
-    <t>赫比學習法</t>
+    <t>赫比学习法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B5%AB%E6%AF%94%E7%AA%81%E8%A7%B8</t>
   </si>
   <si>
-    <t>赫比突觸</t>
+    <t>赫比突触</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E7%B6%93%E7%A7%91%E5%AD%B8</t>
   </si>
   <si>
-    <t>神經科學</t>
+    <t>神经科学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AA%8D%E7%9F%A5%E7%A7%91%E5%AD%B8</t>
   </si>
   <si>
-    <t>認知科學</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E8%85%A6%E7%A7%91%E5%AD%B8</t>
   </si>
   <si>
-    <t>電腦科學</t>
+    <t>电脑科学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E7%82%BA%E7%A7%91%E5%AD%B8</t>
   </si>
   <si>
-    <t>行為科學</t>
+    <t>行为科学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E5%AD%B8</t>
   </si>
   <si>
-    <t>社會學</t>
+    <t>社会学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E9%A1%9E%E5%AD%B8</t>
   </si>
   <si>
-    <t>人類學</t>
+    <t>人类学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%8C%E7%8F%BE%E4%BB%A3%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>後現代主義</t>
+    <t>后现代主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E8%81%AF%E8%A7%A3%E9%AB%94</t>
   </si>
   <si>
-    <t>蘇聯解體</t>
+    <t>苏联解体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E5%9C%8B%E5%AE%B6%E5%AD%B8%E8%A1%93%E9%99%A2</t>
   </si>
   <si>
-    <t>英國國家學術院</t>
+    <t>英国国家学术院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%A8%E5%B0%8F%E5%87%AF</t>
@@ -1529,49 +1514,49 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E7%BE%85%C2%B7%E8%96%A9%E7%B9%86%E7%88%BE%E6%A3%AE</t>
   </si>
   <si>
-    <t>保羅·薩繆爾森</t>
+    <t>保罗·萨缪尔森</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E5%9D%87%E8%A1%A1</t>
   </si>
   <si>
-    <t>經濟均衡</t>
+    <t>经济均衡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E6%88%90%E9%95%B7</t>
   </si>
   <si>
-    <t>經濟成長</t>
+    <t>经济成长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A8%8A%E6%81%AF%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>訊息經濟學</t>
+    <t>讯息经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E9%81%B8%E6%93%87</t>
   </si>
   <si>
-    <t>自由選擇</t>
+    <t>自由选择</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E4%BD%9B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>哈佛大學</t>
+    <t>哈佛大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8B%9E%E5%80%AB%E6%96%AF%C2%B7%E8%96%A9%E9%BB%98%E6%96%AF</t>
   </si>
   <si>
-    <t>勞倫斯·薩默斯</t>
+    <t>劳伦斯·萨默斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9C%8B%E4%B8%8D%E8%A6%8B%E7%9A%84%E6%89%8B</t>
   </si>
   <si>
-    <t>看不見的手</t>
+    <t>看不见的手</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E5%9C%A3%E5%B1%B1%E5%AD%A6%E7%A4%BE</t>
@@ -1583,43 +1568,40 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>社會主義</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%A9%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>物理學</t>
+    <t>物理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%96%E5%AD%B8</t>
   </si>
   <si>
-    <t>化學</t>
+    <t>化学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%86%AB%E5%AD%B8</t>
   </si>
   <si>
-    <t>醫學</t>
+    <t>医学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B9%E6%B3%95%E8%AB%96</t>
   </si>
   <si>
-    <t>方法論</t>
+    <t>方法论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%9B%E6%B4%A5%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>牛津大學</t>
+    <t>牛津大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%9B%9B%E9%A0%93%E7%89%B9%E5%8D%80</t>
   </si>
   <si>
-    <t>華盛頓特區</t>
+    <t>华盛顿特区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E6%89%98%E7%A0%94%E7%A9%B6%E6%89%80</t>
@@ -1637,13 +1619,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E5%AE%88%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>保守主義</t>
+    <t>保守主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E8%87%AA%E7%94%B1%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>社會自由主義</t>
+    <t>社会自由主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A9%B9%E5%A7%86%E6%96%AF%C2%B7M%C2%B7%E5%B8%83%E5%9D%8E%E5%8D%97</t>
@@ -1655,31 +1637,31 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9A%AE%E8%80%B6%E7%BE%85%C2%B7%E6%96%AF%E6%8B%89%E6%B3%95</t>
   </si>
   <si>
-    <t>皮耶羅·斯拉法</t>
+    <t>皮耶罗·斯拉法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%98%AD%E5%85%8B%C2%B7%E5%A5%88%E7%89%B9</t>
   </si>
   <si>
-    <t>法蘭克·奈特</t>
+    <t>法兰克·奈特</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%85%8B%E6%80%9D%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>馬克思主義</t>
+    <t>马克思主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E6%B0%91%E4%B8%BB%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>社會民主主義</t>
+    <t>社会民主主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E6%9C%83</t>
   </si>
   <si>
-    <t>工會</t>
+    <t>工会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E5%88%B6%E5%BA%A6</t>
@@ -1691,13 +1673,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9A%AE%E8%AB%BE%E5%88%87%E7%89%B9</t>
   </si>
   <si>
-    <t>皮諾切特</t>
+    <t>皮诺切特</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E6%8B%89%E6%9F%A5</t>
   </si>
   <si>
-    <t>薩拉查</t>
+    <t>萨拉查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E6%9C%97%E5%93%A5</t>
@@ -1709,7 +1691,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E9%9D%9E%E7%A8%AE%E6%97%8F%E9%9A%94%E9%9B%A2%E5%88%B6%E5%BA%A6</t>
   </si>
   <si>
-    <t>南非種族隔離制度</t>
+    <t>南非种族隔离制度</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%83%E8%B4%B5%E8%B5%84%E6%9C%AC%E4%B8%BB%E4%B9%89</t>
@@ -1721,7 +1703,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E7%A6%8F%E5%88%A9</t>
   </si>
   <si>
-    <t>社會福利</t>
+    <t>社会福利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BA%E8%A0%96%E6%95%88%E5%BA%94</t>
@@ -1733,7 +1715,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E9%80%A3%E5%A5%8E</t>
   </si>
   <si>
-    <t>高連奎</t>
+    <t>高连奎</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/BBC</t>
@@ -1751,7 +1733,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%82%91%E6%8B%89%E7%88%BE%E5%BE%B7%C2%B7%E5%9F%83%E5%BE%B7%E7%88%BE%E6%9B%BC</t>
   </si>
   <si>
-    <t>傑拉爾德·埃德爾曼</t>
+    <t>杰拉尔德·埃德尔曼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Archive.is</t>
@@ -1763,7 +1745,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B1%B3%E7%88%BE%E9%A0%93%C2%B7%E4%BD%9B%E5%88%A9%E6%B0%91</t>
   </si>
   <si>
-    <t>米爾頓·佛利民</t>
+    <t>米尔顿·佛利民</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Fear_the_Boom_and_Bust</t>
@@ -1775,13 +1757,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A5%92%E8%88%8C</t>
   </si>
   <si>
-    <t>饒舌</t>
+    <t>饶舌</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9F%B3%E6%A8%82%E5%BD%B1%E7%89%87</t>
   </si>
   <si>
-    <t>音樂影片</t>
+    <t>音乐影片</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/YouTube</t>
@@ -1859,37 +1841,37 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%A5%A7%E5%A4%9A%C2%B7%E5%A8%81%E5%BB%89%C2%B7%E8%88%92%E7%88%BE%E8%8C%A8</t>
   </si>
   <si>
-    <t>西奧多·威廉·舒爾茨</t>
+    <t>西奥多·威廉·舒尔茨</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8B%9E%E5%80%AB%E6%96%AF%C2%B7%E5%85%8B%E8%90%8A%E5%9B%A0</t>
   </si>
   <si>
-    <t>勞倫斯·克萊因</t>
+    <t>劳伦斯·克莱因</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A9%B9%E5%A7%86%E5%A3%AB%C2%B7%E6%89%98%E8%B3%93</t>
   </si>
   <si>
-    <t>詹姆士·托賓</t>
+    <t>詹姆士·托宾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%82%91%E6%8B%89%E5%BE%B7%C2%B7%E5%BE%B7%E5%B8%83%E9%AD%AF</t>
   </si>
   <si>
-    <t>傑拉德·德布魯</t>
+    <t>杰拉德·德布鲁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%90%86%E6%9F%A5%E5%BE%B7%C2%B7%E5%8F%B2%E6%9D%B1</t>
   </si>
   <si>
-    <t>理查德·史東</t>
+    <t>理查德·史东</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E8%98%AD%E7%A7%91%C2%B7%E8%8E%AB%E8%BF%AA%E5%88%A9%E5%AE%89%E5%B0%BC</t>
   </si>
   <si>
-    <t>弗蘭科·莫迪利安尼</t>
+    <t>弗兰科·莫迪利安尼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E4%BC%AF%E7%89%B9%C2%B7%E7%B4%A2%E6%B4%9B</t>
@@ -1907,13 +1889,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E9%87%8C%E5%A4%AB%C2%B7%E5%93%88%E7%B6%AD%E9%BB%98</t>
   </si>
   <si>
-    <t>特里夫·哈維默</t>
+    <t>特里夫·哈维默</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E5%88%A9%C2%B7%E9%A6%AC%E5%8F%AF%E7%B6%AD%E8%8C%B2</t>
   </si>
   <si>
-    <t>哈利·馬可維茲</t>
+    <t>哈利·马可维兹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BB%98%E9%A1%BF%C2%B7%E7%B1%B3%E5%8B%92</t>
@@ -1931,7 +1913,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%93%8B%E7%91%9E%C2%B7%E8%B2%9D%E5%85%8B</t>
   </si>
   <si>
-    <t>蓋瑞·貝克</t>
+    <t>盖瑞·贝克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E4%BC%AF%E7%89%B9%C2%B7%E7%A6%8F%E6%A0%BC%E5%B0%94</t>
@@ -1997,7 +1979,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E4%BC%AF%E7%89%B9%C2%B7%E8%92%99%E4%BB%A3%E7%88%BE</t>
   </si>
   <si>
-    <t>羅伯特·蒙代爾</t>
+    <t>罗伯特·蒙代尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A9%B9%E5%A7%86%E6%96%AF%C2%B7%E8%B5%AB%E5%85%8B%E6%9B%BC</t>
@@ -2099,7 +2081,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E7%BE%85%C2%B7%E5%85%8B%E9%AD%AF%E6%A0%BC%E6%9B%BC</t>
   </si>
   <si>
-    <t>保羅·克魯格曼</t>
+    <t>保罗·克鲁格曼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BD%BC%E5%BE%97%C2%B7%E6%88%B4%E8%92%99%E5%BE%B7</t>
@@ -2123,7 +2105,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%89%98%E7%91%AA%E6%96%AF%C2%B7%E8%96%A9%E9%87%91%E7%89%B9</t>
   </si>
   <si>
-    <t>托瑪斯·薩金特</t>
+    <t>托玛斯·萨金特</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E9%87%8C%E6%96%AF%E6%89%98%E5%BC%97%C2%B7%E8%A5%BF%E5%A7%86%E6%96%AF</t>
@@ -2159,7 +2141,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E5%8B%83%C2%B7%E5%B8%AD%E5%8B%92</t>
   </si>
   <si>
-    <t>羅勃·席勒</t>
+    <t>罗勃·席勒</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AE%A9%C2%B7%E6%A2%AF%E8%8B%A5%E5%B0%94</t>
@@ -2195,7 +2177,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -2213,7 +2195,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
   </si>
   <si>
-    <t>國際標準名稱識別碼</t>
+    <t>国际标准名称识别码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -2231,7 +2213,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E6%96%87%E6%AA%94%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>大學文檔系統</t>
+    <t>大学文档系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -2249,13 +2231,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%95%B8%E5%AD%B8%E8%AD%9C%E7%B3%BB%E8%A8%88%E7%95%AB</t>
   </si>
   <si>
-    <t>數學譜系計畫</t>
+    <t>数学谱系计画</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8D%B7%E5%85%8B%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -4216,7 +4198,7 @@
         <v>109</v>
       </c>
       <c r="F55" t="s">
-        <v>110</v>
+        <v>26</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -4242,10 +4224,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>110</v>
+      </c>
+      <c r="F56" t="s">
         <v>111</v>
-      </c>
-      <c r="F56" t="s">
-        <v>112</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -4271,10 +4253,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>112</v>
+      </c>
+      <c r="F57" t="s">
         <v>113</v>
-      </c>
-      <c r="F57" t="s">
-        <v>114</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -4300,10 +4282,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>114</v>
+      </c>
+      <c r="F58" t="s">
         <v>115</v>
-      </c>
-      <c r="F58" t="s">
-        <v>116</v>
       </c>
       <c r="G58" t="n">
         <v>2</v>
@@ -4329,10 +4311,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F59" t="s">
-        <v>118</v>
+        <v>86</v>
       </c>
       <c r="G59" t="n">
         <v>4</v>
@@ -4358,10 +4340,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F60" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G60" t="n">
         <v>2</v>
@@ -4387,10 +4369,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F61" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G61" t="n">
         <v>2</v>
@@ -4416,10 +4398,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F62" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -4474,10 +4456,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F64" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -4503,10 +4485,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F65" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G65" t="n">
         <v>3</v>
@@ -4532,10 +4514,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F66" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -4561,10 +4543,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F67" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -4590,10 +4572,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F68" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -4619,10 +4601,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F69" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -4648,10 +4630,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F70" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -4677,10 +4659,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F71" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G71" t="n">
         <v>4</v>
@@ -4706,10 +4688,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F72" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G72" t="n">
         <v>3</v>
@@ -4735,10 +4717,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F73" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G73" t="n">
         <v>2</v>
@@ -4764,10 +4746,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F74" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -4793,10 +4775,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F75" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -4822,10 +4804,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F76" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -4851,10 +4833,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F77" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G77" t="n">
         <v>2</v>
@@ -4880,10 +4862,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F78" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G78" t="n">
         <v>2</v>
@@ -4967,10 +4949,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F81" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -4996,10 +4978,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F82" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -5025,10 +5007,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F83" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G83" t="n">
         <v>2</v>
@@ -5054,10 +5036,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F84" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G84" t="n">
         <v>3</v>
@@ -5083,10 +5065,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F85" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G85" t="n">
         <v>2</v>
@@ -5112,10 +5094,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F86" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -5170,10 +5152,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F88" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -5199,10 +5181,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F89" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G89" t="n">
         <v>4</v>
@@ -5228,10 +5210,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F90" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -5257,10 +5239,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F91" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -5286,10 +5268,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F92" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G92" t="n">
         <v>18</v>
@@ -5315,10 +5297,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F93" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G93" t="n">
         <v>15</v>
@@ -5344,10 +5326,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F94" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -5373,10 +5355,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F95" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -5402,10 +5384,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F96" t="s">
-        <v>184</v>
+        <v>14</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -5431,10 +5413,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F97" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -5460,10 +5442,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F98" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G98" t="n">
         <v>33</v>
@@ -5489,10 +5471,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F99" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -5518,10 +5500,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F100" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G100" t="n">
         <v>5</v>
@@ -5547,10 +5529,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F101" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -5576,10 +5558,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F102" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -5605,10 +5587,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F103" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G103" t="n">
         <v>2</v>
@@ -5634,10 +5616,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F104" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G104" t="n">
         <v>5</v>
@@ -5663,10 +5645,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F105" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G105" t="n">
         <v>3</v>
@@ -5692,10 +5674,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F106" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -5721,10 +5703,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F107" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -5750,10 +5732,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F108" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -5779,10 +5761,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F109" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G109" t="n">
         <v>3</v>
@@ -5808,10 +5790,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F110" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -5837,10 +5819,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F111" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -5866,10 +5848,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F112" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G112" t="n">
         <v>3</v>
@@ -5895,10 +5877,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F113" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -5924,10 +5906,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F114" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -5953,10 +5935,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F115" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G115" t="n">
         <v>11</v>
@@ -5982,10 +5964,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F116" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G116" t="n">
         <v>25</v>
@@ -6011,10 +5993,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F117" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G117" t="n">
         <v>20</v>
@@ -6040,10 +6022,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F118" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -6069,10 +6051,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F119" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -6098,10 +6080,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F120" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -6127,10 +6109,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F121" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -6156,10 +6138,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F122" t="s">
-        <v>234</v>
+        <v>40</v>
       </c>
       <c r="G122" t="n">
         <v>2</v>
@@ -6185,10 +6167,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="F123" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -6214,10 +6196,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="F124" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -6243,10 +6225,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F125" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -6301,10 +6283,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="F127" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -6330,10 +6312,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F128" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -6359,10 +6341,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="F129" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -6388,10 +6370,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F130" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -6417,10 +6399,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="F131" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -6446,10 +6428,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="F132" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -6475,10 +6457,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F133" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="G133" t="n">
         <v>2</v>
@@ -6504,10 +6486,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F134" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -6533,10 +6515,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="F135" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -6562,10 +6544,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F136" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -6591,10 +6573,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F137" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -6620,10 +6602,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="F138" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -6649,10 +6631,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F139" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -6678,10 +6660,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F140" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="G140" t="n">
         <v>2</v>
@@ -6707,10 +6689,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="F141" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -6736,10 +6718,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="F142" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -6765,10 +6747,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F143" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -6794,10 +6776,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="F144" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="G144" t="n">
         <v>2</v>
@@ -6823,10 +6805,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F145" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -6852,10 +6834,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="F146" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -6881,10 +6863,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F147" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -6910,10 +6892,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="F148" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="G148" t="n">
         <v>6</v>
@@ -6939,10 +6921,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="F149" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="G149" t="n">
         <v>3</v>
@@ -6968,10 +6950,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="F150" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -6997,10 +6979,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="F151" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="G151" t="n">
         <v>3</v>
@@ -7026,10 +7008,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="F152" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="G152" t="n">
         <v>3</v>
@@ -7055,10 +7037,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="F153" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="G153" t="n">
         <v>4</v>
@@ -7084,10 +7066,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F154" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G154" t="n">
         <v>9</v>
@@ -7113,10 +7095,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F155" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -7142,10 +7124,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="F156" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="G156" t="n">
         <v>3</v>
@@ -7171,10 +7153,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="F157" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -7200,10 +7182,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="F158" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -7229,10 +7211,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="F159" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -7258,10 +7240,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="F160" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -7287,10 +7269,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="F161" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -7316,10 +7298,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F162" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="G162" t="n">
         <v>3</v>
@@ -7345,10 +7327,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="F163" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -7374,10 +7356,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F164" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -7403,10 +7385,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="F165" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G165" t="n">
         <v>6</v>
@@ -7432,10 +7414,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="F166" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -7461,10 +7443,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F167" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="G167" t="n">
         <v>4</v>
@@ -7490,10 +7472,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="F168" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="G168" t="n">
         <v>25</v>
@@ -7519,10 +7501,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="F169" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -7548,10 +7530,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="F170" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -7577,10 +7559,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F171" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G171" t="n">
         <v>129</v>
@@ -7606,10 +7588,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="F172" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -7635,10 +7617,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="F173" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -7664,10 +7646,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="F174" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -7693,10 +7675,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="F175" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -7722,10 +7704,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="F176" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -7751,10 +7733,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="F177" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -7780,10 +7762,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F178" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="G178" t="n">
         <v>2</v>
@@ -7809,10 +7791,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="F179" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -7838,10 +7820,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="F180" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -7867,10 +7849,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="F181" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -7896,10 +7878,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="F182" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="G182" t="n">
         <v>2</v>
@@ -7925,10 +7907,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="F183" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="G183" t="n">
         <v>4</v>
@@ -7954,10 +7936,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="F184" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -7983,10 +7965,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="F185" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -8012,10 +7994,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="F186" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -8041,10 +8023,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F187" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -8070,10 +8052,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="F188" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -8099,10 +8081,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="F189" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -8128,10 +8110,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F190" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -8157,10 +8139,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="F191" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -8186,10 +8168,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="F192" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -8215,10 +8197,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="F193" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -8273,10 +8255,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="F195" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -8302,10 +8284,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="F196" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -8331,10 +8313,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="F197" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -8360,10 +8342,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="F198" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -8389,10 +8371,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="F199" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -8418,10 +8400,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="F200" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -8447,10 +8429,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="F201" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -8505,10 +8487,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="F203" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="G203" t="n">
         <v>2</v>
@@ -8534,10 +8516,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="F204" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -8563,10 +8545,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F205" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -8592,10 +8574,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="F206" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -8621,10 +8603,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="F207" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -8650,10 +8632,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="F208" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -8679,10 +8661,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="F209" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -8708,10 +8690,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="F210" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -8737,10 +8719,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="F211" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -8766,10 +8748,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="F212" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -8795,10 +8777,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="F213" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -8824,10 +8806,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="F214" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="G214" t="n">
         <v>3</v>
@@ -8853,10 +8835,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="F215" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -8911,10 +8893,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="F217" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -8940,10 +8922,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="F218" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -8969,10 +8951,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="F219" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -8998,10 +8980,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="F220" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -9027,10 +9009,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="F221" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -9056,10 +9038,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="F222" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="G222" t="n">
         <v>2</v>
@@ -9085,10 +9067,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="F223" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -9143,10 +9125,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="F225" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="G225" t="n">
         <v>15</v>
@@ -9172,10 +9154,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="F226" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="G226" t="n">
         <v>12</v>
@@ -9201,10 +9183,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="F227" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="G227" t="n">
         <v>13</v>
@@ -9230,10 +9212,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="F228" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="G228" t="n">
         <v>3</v>
@@ -9259,10 +9241,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="F229" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -9288,10 +9270,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="F230" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="G230" t="n">
         <v>2</v>
@@ -9317,10 +9299,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="F231" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="G231" t="n">
         <v>2</v>
@@ -9346,10 +9328,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="F232" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -9375,10 +9357,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="F233" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="G233" t="n">
         <v>2</v>
@@ -9433,10 +9415,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="F235" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="G235" t="n">
         <v>2</v>
@@ -9462,10 +9444,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="F236" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -9491,10 +9473,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="F237" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="G237" t="n">
         <v>2</v>
@@ -9520,10 +9502,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="F238" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -9549,10 +9531,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="F239" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="G239" t="n">
         <v>7</v>
@@ -9578,10 +9560,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="F240" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -9607,10 +9589,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="F241" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="G241" t="n">
         <v>19</v>
@@ -9665,10 +9647,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="F243" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="G243" t="n">
         <v>2</v>
@@ -9694,10 +9676,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="F244" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -9723,10 +9705,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="F245" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -9752,10 +9734,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="F246" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -9810,10 +9792,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="F248" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -9839,10 +9821,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="F249" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -9868,10 +9850,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="F250" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -9897,10 +9879,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="F251" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -9926,10 +9908,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="F252" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -9955,10 +9937,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="F253" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="G253" t="n">
         <v>2</v>
@@ -9984,10 +9966,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="F254" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -10042,10 +10024,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="F256" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -10071,10 +10053,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="F257" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -10100,10 +10082,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="F258" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -10129,10 +10111,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="F259" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="G259" t="n">
         <v>2</v>
@@ -10158,10 +10140,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="F260" t="s">
-        <v>484</v>
+        <v>113</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -10187,10 +10169,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="F261" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -10216,10 +10198,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="F262" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -10245,10 +10227,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="F263" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="G263" t="n">
         <v>2</v>
@@ -10274,10 +10256,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="F264" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -10303,10 +10285,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="F265" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -10332,10 +10314,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="F266" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="G266" t="n">
         <v>2</v>
@@ -10361,10 +10343,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="F267" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -10390,10 +10372,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="F268" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="G268" t="n">
         <v>2</v>
@@ -10448,10 +10430,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="F270" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -10477,10 +10459,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="F271" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -10506,10 +10488,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="F272" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -10535,10 +10517,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="F273" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -10564,10 +10546,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="F274" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -10593,10 +10575,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="F275" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="G275" t="n">
         <v>1</v>
@@ -10622,10 +10604,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="F276" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -10651,10 +10633,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="F277" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -10680,10 +10662,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="F278" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -10709,10 +10691,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="F279" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -10738,10 +10720,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="F280" t="s">
-        <v>522</v>
+        <v>102</v>
       </c>
       <c r="G280" t="n">
         <v>18</v>
@@ -10767,10 +10749,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="F281" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -10796,10 +10778,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="F282" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -10825,10 +10807,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="F283" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -10854,10 +10836,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="F284" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="G284" t="n">
         <v>2</v>
@@ -10883,10 +10865,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="F285" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -10912,10 +10894,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="F286" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -10941,10 +10923,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="F287" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="G287" t="n">
         <v>3</v>
@@ -10970,10 +10952,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="F288" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -10999,10 +10981,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="F289" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="G289" t="n">
         <v>13</v>
@@ -11057,10 +11039,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="F291" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -11086,10 +11068,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F292" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G292" t="n">
         <v>3</v>
@@ -11144,10 +11126,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="F294" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -11173,10 +11155,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="F295" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -11202,10 +11184,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="F296" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -11231,10 +11213,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="F297" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="G297" t="n">
         <v>2</v>
@@ -11260,10 +11242,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="F298" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -11289,10 +11271,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="F299" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="G299" t="n">
         <v>3</v>
@@ -11318,10 +11300,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="F300" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="G300" t="n">
         <v>2</v>
@@ -11347,10 +11329,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="F301" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="G301" t="n">
         <v>2</v>
@@ -11376,10 +11358,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="F302" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="G302" t="n">
         <v>2</v>
@@ -11405,10 +11387,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="F303" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="G303" t="n">
         <v>1</v>
@@ -11434,10 +11416,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="F304" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
@@ -11463,10 +11445,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="F305" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="G305" t="n">
         <v>1</v>
@@ -11492,10 +11474,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="F306" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="G306" t="n">
         <v>5</v>
@@ -11521,10 +11503,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="F307" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -11550,10 +11532,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="F308" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -11579,10 +11561,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="F309" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="G309" t="n">
         <v>1</v>
@@ -11608,10 +11590,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="F310" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="G310" t="n">
         <v>1</v>
@@ -11666,10 +11648,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F312" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G312" t="n">
         <v>1</v>
@@ -11695,10 +11677,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="F313" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="G313" t="n">
         <v>1</v>
@@ -11724,10 +11706,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="F314" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -11753,10 +11735,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="F315" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="G315" t="n">
         <v>1</v>
@@ -11782,10 +11764,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="F316" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -11811,10 +11793,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="F317" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="G317" t="n">
         <v>1</v>
@@ -11840,10 +11822,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="F318" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="G318" t="n">
         <v>1</v>
@@ -11869,10 +11851,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="F319" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="G319" t="n">
         <v>1</v>
@@ -11898,10 +11880,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="F320" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="G320" t="n">
         <v>1</v>
@@ -11927,10 +11909,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="F321" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="G321" t="n">
         <v>1</v>
@@ -11956,10 +11938,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="F322" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="G322" t="n">
         <v>2</v>
@@ -11985,10 +11967,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="F323" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="G323" t="n">
         <v>3</v>
@@ -12014,10 +11996,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="F324" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="G324" t="n">
         <v>1</v>
@@ -12043,10 +12025,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="F325" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="G325" t="n">
         <v>1</v>
@@ -12072,10 +12054,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="F326" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="G326" t="n">
         <v>1</v>
@@ -12101,10 +12083,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="F327" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="G327" t="n">
         <v>1</v>
@@ -12130,10 +12112,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F328" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G328" t="n">
         <v>3</v>
@@ -12159,10 +12141,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="F329" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="G329" t="n">
         <v>1</v>
@@ -12188,10 +12170,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="F330" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="G330" t="n">
         <v>1</v>
@@ -12217,10 +12199,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
+        <v>114</v>
+      </c>
+      <c r="F331" t="s">
         <v>115</v>
-      </c>
-      <c r="F331" t="s">
-        <v>116</v>
       </c>
       <c r="G331" t="n">
         <v>4</v>
@@ -12246,10 +12228,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="F332" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="G332" t="n">
         <v>1</v>
@@ -12275,10 +12257,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="F333" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="G333" t="n">
         <v>1</v>
@@ -12304,10 +12286,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="F334" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="G334" t="n">
         <v>1</v>
@@ -12333,10 +12315,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="F335" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="G335" t="n">
         <v>1</v>
@@ -12362,10 +12344,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="F336" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="G336" t="n">
         <v>1</v>
@@ -12391,10 +12373,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="F337" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="G337" t="n">
         <v>1</v>
@@ -12420,10 +12402,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="F338" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="G338" t="n">
         <v>1</v>
@@ -12449,10 +12431,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F339" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G339" t="n">
         <v>2</v>
@@ -12478,10 +12460,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="F340" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="G340" t="n">
         <v>1</v>
@@ -12507,10 +12489,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="F341" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="G341" t="n">
         <v>1</v>
@@ -12536,10 +12518,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="F342" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="G342" t="n">
         <v>1</v>
@@ -12565,10 +12547,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="F343" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="G343" t="n">
         <v>1</v>
@@ -12594,10 +12576,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="F344" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="G344" t="n">
         <v>1</v>
@@ -12623,10 +12605,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="F345" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="G345" t="n">
         <v>2</v>
@@ -12652,10 +12634,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="F346" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
       <c r="G346" t="n">
         <v>1</v>
@@ -12681,10 +12663,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="F347" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="G347" t="n">
         <v>1</v>
@@ -12710,10 +12692,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="F348" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="G348" t="n">
         <v>1</v>
@@ -12739,10 +12721,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="F349" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="G349" t="n">
         <v>1</v>
@@ -12768,10 +12750,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="F350" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="G350" t="n">
         <v>1</v>
@@ -12797,10 +12779,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="F351" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="G351" t="n">
         <v>1</v>
@@ -12826,10 +12808,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="F352" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="G352" t="n">
         <v>1</v>
@@ -12855,10 +12837,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="F353" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="G353" t="n">
         <v>1</v>
@@ -12884,10 +12866,10 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="F354" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="G354" t="n">
         <v>1</v>
@@ -12913,10 +12895,10 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="F355" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="G355" t="n">
         <v>1</v>
@@ -12942,10 +12924,10 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="F356" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="G356" t="n">
         <v>1</v>
@@ -12971,10 +12953,10 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="F357" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="G357" t="n">
         <v>1</v>
@@ -13000,10 +12982,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="F358" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="G358" t="n">
         <v>1</v>
@@ -13029,10 +13011,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="F359" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="G359" t="n">
         <v>1</v>
@@ -13058,10 +13040,10 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
       <c r="F360" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="G360" t="n">
         <v>1</v>
@@ -13087,10 +13069,10 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="F361" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="G361" t="n">
         <v>1</v>
@@ -13116,10 +13098,10 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="F362" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="G362" t="n">
         <v>14</v>
@@ -13145,10 +13127,10 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
       <c r="F363" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="G363" t="n">
         <v>1</v>
@@ -13174,10 +13156,10 @@
         <v>363</v>
       </c>
       <c r="E364" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="F364" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="G364" t="n">
         <v>1</v>
@@ -13203,10 +13185,10 @@
         <v>364</v>
       </c>
       <c r="E365" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="F365" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="G365" t="n">
         <v>1</v>
@@ -13232,10 +13214,10 @@
         <v>365</v>
       </c>
       <c r="E366" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="F366" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
       <c r="G366" t="n">
         <v>1</v>
@@ -13261,10 +13243,10 @@
         <v>366</v>
       </c>
       <c r="E367" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="F367" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="G367" t="n">
         <v>1</v>
@@ -13290,10 +13272,10 @@
         <v>367</v>
       </c>
       <c r="E368" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="F368" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
       <c r="G368" t="n">
         <v>1</v>
@@ -13319,10 +13301,10 @@
         <v>368</v>
       </c>
       <c r="E369" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
       <c r="F369" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
       <c r="G369" t="n">
         <v>1</v>
@@ -13348,10 +13330,10 @@
         <v>369</v>
       </c>
       <c r="E370" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="F370" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="G370" t="n">
         <v>1</v>
@@ -13377,10 +13359,10 @@
         <v>370</v>
       </c>
       <c r="E371" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
       <c r="F371" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
       <c r="G371" t="n">
         <v>1</v>
@@ -13406,10 +13388,10 @@
         <v>371</v>
       </c>
       <c r="E372" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
       <c r="F372" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="G372" t="n">
         <v>1</v>
@@ -13435,10 +13417,10 @@
         <v>372</v>
       </c>
       <c r="E373" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="F373" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="G373" t="n">
         <v>1</v>
@@ -13464,10 +13446,10 @@
         <v>373</v>
       </c>
       <c r="E374" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F374" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="G374" t="n">
         <v>1</v>
@@ -13493,10 +13475,10 @@
         <v>374</v>
       </c>
       <c r="E375" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="F375" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
       <c r="G375" t="n">
         <v>1</v>
@@ -13522,10 +13504,10 @@
         <v>375</v>
       </c>
       <c r="E376" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
       <c r="F376" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
       <c r="G376" t="n">
         <v>1</v>
@@ -13551,10 +13533,10 @@
         <v>376</v>
       </c>
       <c r="E377" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
       <c r="F377" t="s">
-        <v>688</v>
+        <v>682</v>
       </c>
       <c r="G377" t="n">
         <v>1</v>
@@ -13580,10 +13562,10 @@
         <v>377</v>
       </c>
       <c r="E378" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="F378" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
       <c r="G378" t="n">
         <v>1</v>
@@ -13609,10 +13591,10 @@
         <v>378</v>
       </c>
       <c r="E379" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
       <c r="F379" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
       <c r="G379" t="n">
         <v>1</v>
@@ -13638,10 +13620,10 @@
         <v>379</v>
       </c>
       <c r="E380" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
       <c r="F380" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="G380" t="n">
         <v>1</v>
@@ -13696,10 +13678,10 @@
         <v>381</v>
       </c>
       <c r="E382" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="F382" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="G382" t="n">
         <v>3</v>
@@ -13725,10 +13707,10 @@
         <v>382</v>
       </c>
       <c r="E383" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="F383" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
       <c r="G383" t="n">
         <v>1</v>
@@ -13754,10 +13736,10 @@
         <v>383</v>
       </c>
       <c r="E384" t="s">
-        <v>697</v>
+        <v>691</v>
       </c>
       <c r="F384" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="G384" t="n">
         <v>1</v>
@@ -13783,10 +13765,10 @@
         <v>384</v>
       </c>
       <c r="E385" t="s">
-        <v>699</v>
+        <v>693</v>
       </c>
       <c r="F385" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="G385" t="n">
         <v>1</v>
@@ -13812,10 +13794,10 @@
         <v>385</v>
       </c>
       <c r="E386" t="s">
-        <v>701</v>
+        <v>695</v>
       </c>
       <c r="F386" t="s">
-        <v>702</v>
+        <v>696</v>
       </c>
       <c r="G386" t="n">
         <v>1</v>
@@ -13841,10 +13823,10 @@
         <v>386</v>
       </c>
       <c r="E387" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
       <c r="F387" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
       <c r="G387" t="n">
         <v>1</v>
@@ -13870,10 +13852,10 @@
         <v>387</v>
       </c>
       <c r="E388" t="s">
-        <v>705</v>
+        <v>699</v>
       </c>
       <c r="F388" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="G388" t="n">
         <v>1</v>
@@ -13899,10 +13881,10 @@
         <v>388</v>
       </c>
       <c r="E389" t="s">
-        <v>707</v>
+        <v>701</v>
       </c>
       <c r="F389" t="s">
-        <v>708</v>
+        <v>702</v>
       </c>
       <c r="G389" t="n">
         <v>1</v>
@@ -13928,10 +13910,10 @@
         <v>389</v>
       </c>
       <c r="E390" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
       <c r="F390" t="s">
-        <v>710</v>
+        <v>704</v>
       </c>
       <c r="G390" t="n">
         <v>1</v>
@@ -13957,10 +13939,10 @@
         <v>390</v>
       </c>
       <c r="E391" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
       <c r="F391" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
       <c r="G391" t="n">
         <v>1</v>
@@ -13986,10 +13968,10 @@
         <v>391</v>
       </c>
       <c r="E392" t="s">
-        <v>713</v>
+        <v>707</v>
       </c>
       <c r="F392" t="s">
-        <v>714</v>
+        <v>708</v>
       </c>
       <c r="G392" t="n">
         <v>1</v>
@@ -14015,10 +13997,10 @@
         <v>392</v>
       </c>
       <c r="E393" t="s">
-        <v>715</v>
+        <v>709</v>
       </c>
       <c r="F393" t="s">
-        <v>716</v>
+        <v>710</v>
       </c>
       <c r="G393" t="n">
         <v>1</v>
@@ -14044,10 +14026,10 @@
         <v>393</v>
       </c>
       <c r="E394" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
       <c r="F394" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="G394" t="n">
         <v>1</v>
@@ -14073,10 +14055,10 @@
         <v>394</v>
       </c>
       <c r="E395" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="F395" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="G395" t="n">
         <v>1</v>
@@ -14102,10 +14084,10 @@
         <v>395</v>
       </c>
       <c r="E396" t="s">
-        <v>721</v>
+        <v>715</v>
       </c>
       <c r="F396" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
       <c r="G396" t="n">
         <v>1</v>
@@ -14131,10 +14113,10 @@
         <v>396</v>
       </c>
       <c r="E397" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="F397" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
       <c r="G397" t="n">
         <v>1</v>
@@ -14160,10 +14142,10 @@
         <v>397</v>
       </c>
       <c r="E398" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
       <c r="F398" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
       <c r="G398" t="n">
         <v>3</v>
@@ -14189,10 +14171,10 @@
         <v>398</v>
       </c>
       <c r="E399" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="F399" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
       <c r="G399" t="n">
         <v>1</v>
@@ -14218,10 +14200,10 @@
         <v>399</v>
       </c>
       <c r="E400" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
       <c r="F400" t="s">
-        <v>730</v>
+        <v>724</v>
       </c>
       <c r="G400" t="n">
         <v>1</v>
@@ -14247,10 +14229,10 @@
         <v>400</v>
       </c>
       <c r="E401" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="F401" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
       <c r="G401" t="n">
         <v>1</v>
@@ -14276,10 +14258,10 @@
         <v>401</v>
       </c>
       <c r="E402" t="s">
-        <v>733</v>
+        <v>727</v>
       </c>
       <c r="F402" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
       <c r="G402" t="n">
         <v>1</v>
@@ -14305,10 +14287,10 @@
         <v>402</v>
       </c>
       <c r="E403" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="F403" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
       <c r="G403" t="n">
         <v>1</v>
@@ -14334,10 +14316,10 @@
         <v>403</v>
       </c>
       <c r="E404" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
       <c r="F404" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
       <c r="G404" t="n">
         <v>1</v>
@@ -14363,10 +14345,10 @@
         <v>404</v>
       </c>
       <c r="E405" t="s">
-        <v>739</v>
+        <v>733</v>
       </c>
       <c r="F405" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
       <c r="G405" t="n">
         <v>1</v>
@@ -14392,10 +14374,10 @@
         <v>405</v>
       </c>
       <c r="E406" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
       <c r="F406" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
       <c r="G406" t="n">
         <v>1</v>
@@ -14421,10 +14403,10 @@
         <v>406</v>
       </c>
       <c r="E407" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
       <c r="F407" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="G407" t="n">
         <v>1</v>
@@ -14450,10 +14432,10 @@
         <v>407</v>
       </c>
       <c r="E408" t="s">
-        <v>745</v>
+        <v>739</v>
       </c>
       <c r="F408" t="s">
-        <v>746</v>
+        <v>740</v>
       </c>
       <c r="G408" t="n">
         <v>1</v>
@@ -14479,10 +14461,10 @@
         <v>408</v>
       </c>
       <c r="E409" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="F409" t="s">
-        <v>748</v>
+        <v>742</v>
       </c>
       <c r="G409" t="n">
         <v>1</v>
@@ -14508,10 +14490,10 @@
         <v>409</v>
       </c>
       <c r="E410" t="s">
-        <v>749</v>
+        <v>743</v>
       </c>
       <c r="F410" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
       <c r="G410" t="n">
         <v>2</v>
@@ -14537,10 +14519,10 @@
         <v>410</v>
       </c>
       <c r="E411" t="s">
-        <v>751</v>
+        <v>745</v>
       </c>
       <c r="F411" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="G411" t="n">
         <v>1</v>
@@ -14566,10 +14548,10 @@
         <v>411</v>
       </c>
       <c r="E412" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="F412" t="s">
-        <v>754</v>
+        <v>748</v>
       </c>
       <c r="G412" t="n">
         <v>2</v>
